--- a/Solution_Petit_Cases.xlsx
+++ b/Solution_Petit_Cases.xlsx
@@ -1,24 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAVID MORA MEZA\Documents\GitHub\OS11_Projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yann\Documents\GitHub\OS11_Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F91676-FEB2-4712-A5AA-3853D667243E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$B$2:$E$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$B$4:$H$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet5!$B$2:$H$77</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="62">
   <si>
     <t>Scenario</t>
   </si>
@@ -228,7 +235,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -310,7 +317,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="DAVID MORA MEZA" refreshedDate="44915.990140277776" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="75" xr:uid="{FB8186D2-C18F-42C0-ACB5-B4AA042D28E6}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="DAVID MORA MEZA" refreshedDate="44915.990140277776" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="75">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:J76" sheet="Sheet1"/>
   </cacheSource>
@@ -1198,7 +1205,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EC71D8B5-7D0F-44B9-872F-32956EEFA2DF}" name="TablaDinámica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0" defaultSubtotal="0">
@@ -1604,25 +1611,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:J76"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1651,7 +1660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1683,7 +1692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1715,7 +1724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1747,7 +1756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1779,7 +1788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1811,7 +1820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1843,7 +1852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1875,7 +1884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1907,7 +1916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1939,7 +1948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1971,7 +1980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2003,7 +2012,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2035,7 +2044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2067,7 +2076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2099,7 +2108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2131,7 +2140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2163,7 +2172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2195,7 +2204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2227,7 +2236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2259,7 +2268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2291,7 +2300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2323,7 +2332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2355,7 +2364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2387,7 +2396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2419,7 +2428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2451,7 +2460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2483,7 +2492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2515,7 +2524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2547,7 +2556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2579,7 +2588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2611,7 +2620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2643,7 +2652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2675,7 +2684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2707,7 +2716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2739,7 +2748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2771,7 +2780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2803,7 +2812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2835,7 +2844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2867,7 +2876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2899,7 +2908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2931,7 +2940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2963,7 +2972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2995,7 +3004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3027,7 +3036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3059,7 +3068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3091,7 +3100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3123,7 +3132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3155,7 +3164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3187,7 +3196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3219,7 +3228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3251,7 +3260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3283,7 +3292,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3315,7 +3324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3347,7 +3356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3379,7 +3388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3411,7 +3420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3443,7 +3452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3475,7 +3484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3507,7 +3516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3539,7 +3548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3571,7 +3580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3603,7 +3612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3635,7 +3644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3667,7 +3676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3699,7 +3708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3731,7 +3740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3763,7 +3772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3795,7 +3804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3827,7 +3836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3859,7 +3868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3891,7 +3900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3923,7 +3932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3955,7 +3964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3987,7 +3996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4019,7 +4028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4057,21 +4066,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4B4E40-7839-4BAC-9CC3-AEC828FF17D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+    <sheetView zoomScale="109" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>59</v>
       </c>
@@ -4082,14 +4091,14 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -4100,7 +4109,7 @@
         <v>0.11063477325723423</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -4111,7 +4120,7 @@
         <v>0.11063477325723423</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -4122,7 +4131,7 @@
         <v>5.4634346256432556E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -4133,7 +4142,7 @@
         <v>4.7599114165851546E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -4144,14 +4153,14 @@
         <v>2.7955828684300115E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -4162,7 +4171,7 @@
         <v>0.21661043762503768</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -4173,7 +4182,7 @@
         <v>0.21661043762503768</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
@@ -4184,7 +4193,7 @@
         <v>8.3275624789264854E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
@@ -4195,7 +4204,7 @@
         <v>4.8104694461842623E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -4206,14 +4215,14 @@
         <v>4.3581277294104777E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
@@ -4224,7 +4233,7 @@
         <v>8.4254800704480923E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
@@ -4235,7 +4244,7 @@
         <v>8.4254800704480923E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
@@ -4246,7 +4255,7 @@
         <v>8.8627733559039121E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>16</v>
       </c>
@@ -4257,7 +4266,7 @@
         <v>4.8104694461842623E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
@@ -4271,4 +4280,4652 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="B2:E77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>98.809009991703832</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>83.53257191799014</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>93.260764844377462</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>93.260764844377462</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>93.344509627185303</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>99.838682654697706</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>93.344509627185303</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>93.344509627185303</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>93.344509627185303</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>93.344509627185303</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>87.930190806471003</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>86.161125174864566</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>99.229966696192591</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>99.229966696192591</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>93.344509627185303</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>97.400431032480725</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>97.400431032480725</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>98.216943136678665</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <v>98.216943136678665</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22">
+        <v>97.402836100248862</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>88.961832298285742</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>85.75279451074033</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25">
+        <v>99.234957168473954</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26">
+        <v>99.234957168473954</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27">
+        <v>99.234957168473954</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>99.234957168473954</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>99.234957168473954</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30">
+        <v>99.234957168473954</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31">
+        <v>99.234957168473954</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32">
+        <v>99.234957168473954</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>98.241097578494831</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <v>89.029263630232165</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35">
+        <v>97.332633596912117</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36">
+        <v>99.274246018246927</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37">
+        <v>97.519741942938793</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>99.623891441000467</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39">
+        <v>94.684561528353683</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40">
+        <v>94.684561528353683</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41">
+        <v>94.684561528353683</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42">
+        <v>94.684561528353683</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>94.684561528353669</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44">
+        <v>94.684561528353669</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45">
+        <v>94.684561528353669</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46">
+        <v>94.684561528353669</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47">
+        <v>94.684561528353669</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48">
+        <v>94.949763952774234</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49">
+        <v>94.142418995578197</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50">
+        <v>99.004809436913078</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51">
+        <v>99.004809436913078</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52">
+        <v>99.004809436913078</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53">
+        <v>76.669007840739297</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54">
+        <v>63.904215158400532</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55">
+        <v>90.74994624138435</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56">
+        <v>98.385667763467225</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57">
+        <v>99.004809436913078</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58">
+        <v>93.87101330405126</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59">
+        <v>88.979454597060311</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60">
+        <v>88.979454597060311</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61">
+        <v>98.385667763467239</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62">
+        <v>99.004809436913092</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63">
+        <v>81.416468868660218</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64">
+        <v>69.515676941113824</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65">
+        <v>99.102780273106376</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66">
+        <v>99.102780273106376</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67">
+        <v>99.801622073254194</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68">
+        <v>79.569725556396165</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69">
+        <v>79.00253290732914</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70">
+        <v>99.818398738172931</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71">
+        <v>99.818398738172931</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72">
+        <v>99.818398738172931</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73">
+        <v>77.219476762658829</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74">
+        <v>76.993656721359557</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75">
+        <v>99.818398738172931</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76">
+        <v>99.818398738172931</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B77">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77">
+        <v>99.818398738172931</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:E77">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="M1"/>
+        <filter val="M1, M2"/>
+        <filter val="Non"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="B4:H79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>98.809009991703832</v>
+      </c>
+      <c r="F5">
+        <v>164</v>
+      </c>
+      <c r="G5">
+        <v>202</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>83.53257191799014</v>
+      </c>
+      <c r="F6">
+        <v>164</v>
+      </c>
+      <c r="G6">
+        <v>202</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>93.260764844377462</v>
+      </c>
+      <c r="F7">
+        <v>191</v>
+      </c>
+      <c r="G7">
+        <v>202</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>93.260764844377462</v>
+      </c>
+      <c r="F8">
+        <v>191</v>
+      </c>
+      <c r="G8">
+        <v>202</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>93.344509627185303</v>
+      </c>
+      <c r="F9">
+        <v>202</v>
+      </c>
+      <c r="G9">
+        <v>202</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>99.838682654697706</v>
+      </c>
+      <c r="F10">
+        <v>202</v>
+      </c>
+      <c r="G10">
+        <v>202</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>93.344509627185303</v>
+      </c>
+      <c r="F11">
+        <v>202</v>
+      </c>
+      <c r="G11">
+        <v>202</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>93.344509627185303</v>
+      </c>
+      <c r="F12">
+        <v>202</v>
+      </c>
+      <c r="G12">
+        <v>202</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>93.344509627185303</v>
+      </c>
+      <c r="F13">
+        <v>202</v>
+      </c>
+      <c r="G13">
+        <v>202</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14">
+        <v>93.344509627185303</v>
+      </c>
+      <c r="F14">
+        <v>202</v>
+      </c>
+      <c r="G14">
+        <v>202</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>87.930190806471003</v>
+      </c>
+      <c r="F15">
+        <v>191</v>
+      </c>
+      <c r="G15">
+        <v>202</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>86.161125174864566</v>
+      </c>
+      <c r="F16">
+        <v>191</v>
+      </c>
+      <c r="G16">
+        <v>202</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>99.229966696192591</v>
+      </c>
+      <c r="F17">
+        <v>202</v>
+      </c>
+      <c r="G17">
+        <v>202</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>99.229966696192591</v>
+      </c>
+      <c r="F18">
+        <v>202</v>
+      </c>
+      <c r="G18">
+        <v>202</v>
+      </c>
+      <c r="H18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>93.344509627185303</v>
+      </c>
+      <c r="F19">
+        <v>202</v>
+      </c>
+      <c r="G19">
+        <v>202</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>97.400431032480725</v>
+      </c>
+      <c r="F20">
+        <v>96</v>
+      </c>
+      <c r="G20">
+        <v>105</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>97.400431032480725</v>
+      </c>
+      <c r="F21">
+        <v>96</v>
+      </c>
+      <c r="G21">
+        <v>105</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>98.216943136678665</v>
+      </c>
+      <c r="F22">
+        <v>105</v>
+      </c>
+      <c r="G22">
+        <v>105</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23">
+        <v>98.216943136678665</v>
+      </c>
+      <c r="F23">
+        <v>105</v>
+      </c>
+      <c r="G23">
+        <v>105</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24">
+        <v>97.402836100248862</v>
+      </c>
+      <c r="F24">
+        <v>105</v>
+      </c>
+      <c r="G24">
+        <v>105</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>88.961832298285742</v>
+      </c>
+      <c r="F25">
+        <v>91</v>
+      </c>
+      <c r="G25">
+        <v>105</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>85.75279451074033</v>
+      </c>
+      <c r="F26">
+        <v>91</v>
+      </c>
+      <c r="G26">
+        <v>105</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27">
+        <v>99.234957168473954</v>
+      </c>
+      <c r="F27">
+        <v>102</v>
+      </c>
+      <c r="G27">
+        <v>105</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28">
+        <v>99.234957168473954</v>
+      </c>
+      <c r="F28">
+        <v>102</v>
+      </c>
+      <c r="G28">
+        <v>105</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29">
+        <v>99.234957168473954</v>
+      </c>
+      <c r="F29">
+        <v>102</v>
+      </c>
+      <c r="G29">
+        <v>105</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>99.234957168473954</v>
+      </c>
+      <c r="F30">
+        <v>102</v>
+      </c>
+      <c r="G30">
+        <v>105</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>99.234957168473954</v>
+      </c>
+      <c r="F31">
+        <v>102</v>
+      </c>
+      <c r="G31">
+        <v>105</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32">
+        <v>99.234957168473954</v>
+      </c>
+      <c r="F32">
+        <v>102</v>
+      </c>
+      <c r="G32">
+        <v>105</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33">
+        <v>99.234957168473954</v>
+      </c>
+      <c r="F33">
+        <v>102</v>
+      </c>
+      <c r="G33">
+        <v>105</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34">
+        <v>99.234957168473954</v>
+      </c>
+      <c r="F34">
+        <v>102</v>
+      </c>
+      <c r="G34">
+        <v>105</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>98.241097578494831</v>
+      </c>
+      <c r="F35">
+        <v>95</v>
+      </c>
+      <c r="G35">
+        <v>155</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36">
+        <v>89.029263630232165</v>
+      </c>
+      <c r="F36">
+        <v>95</v>
+      </c>
+      <c r="G36">
+        <v>155</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37">
+        <v>97.332633596912117</v>
+      </c>
+      <c r="F37">
+        <v>138</v>
+      </c>
+      <c r="G37">
+        <v>155</v>
+      </c>
+      <c r="H37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38">
+        <v>99.274246018246927</v>
+      </c>
+      <c r="F38">
+        <v>145</v>
+      </c>
+      <c r="G38">
+        <v>155</v>
+      </c>
+      <c r="H38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39">
+        <v>97.519741942938793</v>
+      </c>
+      <c r="F39">
+        <v>145</v>
+      </c>
+      <c r="G39">
+        <v>155</v>
+      </c>
+      <c r="H39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>99.623891441000467</v>
+      </c>
+      <c r="F40">
+        <v>155</v>
+      </c>
+      <c r="G40">
+        <v>155</v>
+      </c>
+      <c r="H40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41">
+        <v>94.684561528353683</v>
+      </c>
+      <c r="F41">
+        <v>155</v>
+      </c>
+      <c r="G41">
+        <v>155</v>
+      </c>
+      <c r="H41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42">
+        <v>94.684561528353683</v>
+      </c>
+      <c r="F42">
+        <v>155</v>
+      </c>
+      <c r="G42">
+        <v>155</v>
+      </c>
+      <c r="H42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43">
+        <v>94.684561528353683</v>
+      </c>
+      <c r="F43">
+        <v>155</v>
+      </c>
+      <c r="G43">
+        <v>155</v>
+      </c>
+      <c r="H43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44">
+        <v>94.684561528353683</v>
+      </c>
+      <c r="F44">
+        <v>155</v>
+      </c>
+      <c r="G44">
+        <v>155</v>
+      </c>
+      <c r="H44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45">
+        <v>94.684561528353669</v>
+      </c>
+      <c r="F45">
+        <v>155</v>
+      </c>
+      <c r="G45">
+        <v>155</v>
+      </c>
+      <c r="H45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46">
+        <v>94.684561528353669</v>
+      </c>
+      <c r="F46">
+        <v>155</v>
+      </c>
+      <c r="G46">
+        <v>155</v>
+      </c>
+      <c r="H46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47">
+        <v>94.684561528353669</v>
+      </c>
+      <c r="F47">
+        <v>155</v>
+      </c>
+      <c r="G47">
+        <v>155</v>
+      </c>
+      <c r="H47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48">
+        <v>94.684561528353669</v>
+      </c>
+      <c r="F48">
+        <v>155</v>
+      </c>
+      <c r="G48">
+        <v>155</v>
+      </c>
+      <c r="H48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49">
+        <v>94.684561528353669</v>
+      </c>
+      <c r="F49">
+        <v>155</v>
+      </c>
+      <c r="G49">
+        <v>155</v>
+      </c>
+      <c r="H49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50">
+        <v>94.949763952774234</v>
+      </c>
+      <c r="F50">
+        <v>108</v>
+      </c>
+      <c r="G50">
+        <v>145</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51">
+        <v>94.142418995578197</v>
+      </c>
+      <c r="F51">
+        <v>108</v>
+      </c>
+      <c r="G51">
+        <v>145</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52">
+        <v>99.004809436913078</v>
+      </c>
+      <c r="F52">
+        <v>143</v>
+      </c>
+      <c r="G52">
+        <v>145</v>
+      </c>
+      <c r="H52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53">
+        <v>99.004809436913078</v>
+      </c>
+      <c r="F53">
+        <v>143</v>
+      </c>
+      <c r="G53">
+        <v>145</v>
+      </c>
+      <c r="H53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54">
+        <v>99.004809436913078</v>
+      </c>
+      <c r="F54">
+        <v>143</v>
+      </c>
+      <c r="G54">
+        <v>145</v>
+      </c>
+      <c r="H54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55">
+        <v>76.669007840739297</v>
+      </c>
+      <c r="F55">
+        <v>70</v>
+      </c>
+      <c r="G55">
+        <v>145</v>
+      </c>
+      <c r="H55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56">
+        <v>63.904215158400532</v>
+      </c>
+      <c r="F56">
+        <v>70</v>
+      </c>
+      <c r="G56">
+        <v>145</v>
+      </c>
+      <c r="H56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57">
+        <v>90.74994624138435</v>
+      </c>
+      <c r="F57">
+        <v>117</v>
+      </c>
+      <c r="G57">
+        <v>145</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58">
+        <v>98.385667763467225</v>
+      </c>
+      <c r="F58">
+        <v>133</v>
+      </c>
+      <c r="G58">
+        <v>145</v>
+      </c>
+      <c r="H58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59">
+        <v>99.004809436913078</v>
+      </c>
+      <c r="F59">
+        <v>143</v>
+      </c>
+      <c r="G59">
+        <v>145</v>
+      </c>
+      <c r="H59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60">
+        <v>93.87101330405126</v>
+      </c>
+      <c r="F60">
+        <v>115</v>
+      </c>
+      <c r="G60">
+        <v>145</v>
+      </c>
+      <c r="H60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61">
+        <v>88.979454597060311</v>
+      </c>
+      <c r="F61">
+        <v>115</v>
+      </c>
+      <c r="G61">
+        <v>145</v>
+      </c>
+      <c r="H61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62">
+        <v>88.979454597060311</v>
+      </c>
+      <c r="F62">
+        <v>115</v>
+      </c>
+      <c r="G62">
+        <v>145</v>
+      </c>
+      <c r="H62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63">
+        <v>98.385667763467239</v>
+      </c>
+      <c r="F63">
+        <v>133</v>
+      </c>
+      <c r="G63">
+        <v>145</v>
+      </c>
+      <c r="H63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64">
+        <v>99.004809436913092</v>
+      </c>
+      <c r="F64">
+        <v>143</v>
+      </c>
+      <c r="G64">
+        <v>145</v>
+      </c>
+      <c r="H64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65">
+        <v>81.416468868660218</v>
+      </c>
+      <c r="F65">
+        <v>147</v>
+      </c>
+      <c r="G65">
+        <v>182</v>
+      </c>
+      <c r="H65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66">
+        <v>69.515676941113824</v>
+      </c>
+      <c r="F66">
+        <v>147</v>
+      </c>
+      <c r="G66">
+        <v>182</v>
+      </c>
+      <c r="H66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67">
+        <v>99.102780273106376</v>
+      </c>
+      <c r="F67">
+        <v>160</v>
+      </c>
+      <c r="G67">
+        <v>182</v>
+      </c>
+      <c r="H67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68">
+        <v>99.102780273106376</v>
+      </c>
+      <c r="F68">
+        <v>160</v>
+      </c>
+      <c r="G68">
+        <v>182</v>
+      </c>
+      <c r="H68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69">
+        <v>99.801622073254194</v>
+      </c>
+      <c r="F69">
+        <v>182</v>
+      </c>
+      <c r="G69">
+        <v>182</v>
+      </c>
+      <c r="H69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70">
+        <v>79.569725556396165</v>
+      </c>
+      <c r="F70">
+        <v>134</v>
+      </c>
+      <c r="G70">
+        <v>182</v>
+      </c>
+      <c r="H70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71">
+        <v>79.00253290732914</v>
+      </c>
+      <c r="F71">
+        <v>134</v>
+      </c>
+      <c r="G71">
+        <v>182</v>
+      </c>
+      <c r="H71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72">
+        <v>99.818398738172931</v>
+      </c>
+      <c r="F72">
+        <v>163</v>
+      </c>
+      <c r="G72">
+        <v>182</v>
+      </c>
+      <c r="H72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73">
+        <v>99.818398738172931</v>
+      </c>
+      <c r="F73">
+        <v>163</v>
+      </c>
+      <c r="G73">
+        <v>182</v>
+      </c>
+      <c r="H73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74">
+        <v>99.818398738172931</v>
+      </c>
+      <c r="F74">
+        <v>163</v>
+      </c>
+      <c r="G74">
+        <v>182</v>
+      </c>
+      <c r="H74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75">
+        <v>77.219476762658829</v>
+      </c>
+      <c r="F75">
+        <v>158</v>
+      </c>
+      <c r="G75">
+        <v>182</v>
+      </c>
+      <c r="H75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76">
+        <v>76.993656721359557</v>
+      </c>
+      <c r="F76">
+        <v>158</v>
+      </c>
+      <c r="G76">
+        <v>182</v>
+      </c>
+      <c r="H76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B77">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77">
+        <v>99.818398738172931</v>
+      </c>
+      <c r="F77">
+        <v>163</v>
+      </c>
+      <c r="G77">
+        <v>182</v>
+      </c>
+      <c r="H77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78">
+        <v>99.818398738172931</v>
+      </c>
+      <c r="F78">
+        <v>163</v>
+      </c>
+      <c r="G78">
+        <v>182</v>
+      </c>
+      <c r="H78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79">
+        <v>99.818398738172931</v>
+      </c>
+      <c r="F79">
+        <v>163</v>
+      </c>
+      <c r="G79">
+        <v>182</v>
+      </c>
+      <c r="H79">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B4:H79">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="M1"/>
+        <filter val="M1, M2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="B2:H77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>98.809009991703832</v>
+      </c>
+      <c r="F3">
+        <v>164</v>
+      </c>
+      <c r="G3">
+        <v>202</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>83.53257191799014</v>
+      </c>
+      <c r="F4">
+        <v>164</v>
+      </c>
+      <c r="G4">
+        <v>202</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>93.260764844377462</v>
+      </c>
+      <c r="F5">
+        <v>191</v>
+      </c>
+      <c r="G5">
+        <v>202</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>93.260764844377462</v>
+      </c>
+      <c r="F6">
+        <v>191</v>
+      </c>
+      <c r="G6">
+        <v>202</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>93.344509627185303</v>
+      </c>
+      <c r="F7">
+        <v>202</v>
+      </c>
+      <c r="G7">
+        <v>202</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>99.838682654697706</v>
+      </c>
+      <c r="F8">
+        <v>202</v>
+      </c>
+      <c r="G8">
+        <v>202</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>93.344509627185303</v>
+      </c>
+      <c r="F9">
+        <v>202</v>
+      </c>
+      <c r="G9">
+        <v>202</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>93.344509627185303</v>
+      </c>
+      <c r="F10">
+        <v>202</v>
+      </c>
+      <c r="G10">
+        <v>202</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>93.344509627185303</v>
+      </c>
+      <c r="F11">
+        <v>202</v>
+      </c>
+      <c r="G11">
+        <v>202</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>93.344509627185303</v>
+      </c>
+      <c r="F12">
+        <v>202</v>
+      </c>
+      <c r="G12">
+        <v>202</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>87.930190806471003</v>
+      </c>
+      <c r="F13">
+        <v>191</v>
+      </c>
+      <c r="G13">
+        <v>202</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>86.161125174864566</v>
+      </c>
+      <c r="F14">
+        <v>191</v>
+      </c>
+      <c r="G14">
+        <v>202</v>
+      </c>
+      <c r="H14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>99.229966696192591</v>
+      </c>
+      <c r="F15">
+        <v>202</v>
+      </c>
+      <c r="G15">
+        <v>202</v>
+      </c>
+      <c r="H15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>99.229966696192591</v>
+      </c>
+      <c r="F16">
+        <v>202</v>
+      </c>
+      <c r="G16">
+        <v>202</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>93.344509627185303</v>
+      </c>
+      <c r="F17">
+        <v>202</v>
+      </c>
+      <c r="G17">
+        <v>202</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>97.400431032480725</v>
+      </c>
+      <c r="F18">
+        <v>96</v>
+      </c>
+      <c r="G18">
+        <v>105</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>97.400431032480725</v>
+      </c>
+      <c r="F19">
+        <v>96</v>
+      </c>
+      <c r="G19">
+        <v>105</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>98.216943136678665</v>
+      </c>
+      <c r="F20">
+        <v>105</v>
+      </c>
+      <c r="G20">
+        <v>105</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <v>98.216943136678665</v>
+      </c>
+      <c r="F21">
+        <v>105</v>
+      </c>
+      <c r="G21">
+        <v>105</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22">
+        <v>97.402836100248862</v>
+      </c>
+      <c r="F22">
+        <v>105</v>
+      </c>
+      <c r="G22">
+        <v>105</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>88.961832298285742</v>
+      </c>
+      <c r="F23">
+        <v>91</v>
+      </c>
+      <c r="G23">
+        <v>105</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>85.75279451074033</v>
+      </c>
+      <c r="F24">
+        <v>91</v>
+      </c>
+      <c r="G24">
+        <v>105</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25">
+        <v>99.234957168473954</v>
+      </c>
+      <c r="F25">
+        <v>102</v>
+      </c>
+      <c r="G25">
+        <v>105</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26">
+        <v>99.234957168473954</v>
+      </c>
+      <c r="F26">
+        <v>102</v>
+      </c>
+      <c r="G26">
+        <v>105</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27">
+        <v>99.234957168473954</v>
+      </c>
+      <c r="F27">
+        <v>102</v>
+      </c>
+      <c r="G27">
+        <v>105</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>99.234957168473954</v>
+      </c>
+      <c r="F28">
+        <v>102</v>
+      </c>
+      <c r="G28">
+        <v>105</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>99.234957168473954</v>
+      </c>
+      <c r="F29">
+        <v>102</v>
+      </c>
+      <c r="G29">
+        <v>105</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30">
+        <v>99.234957168473954</v>
+      </c>
+      <c r="F30">
+        <v>102</v>
+      </c>
+      <c r="G30">
+        <v>105</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31">
+        <v>99.234957168473954</v>
+      </c>
+      <c r="F31">
+        <v>102</v>
+      </c>
+      <c r="G31">
+        <v>105</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32">
+        <v>99.234957168473954</v>
+      </c>
+      <c r="F32">
+        <v>102</v>
+      </c>
+      <c r="G32">
+        <v>105</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>98.241097578494831</v>
+      </c>
+      <c r="F33">
+        <v>95</v>
+      </c>
+      <c r="G33">
+        <v>155</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <v>89.029263630232165</v>
+      </c>
+      <c r="F34">
+        <v>95</v>
+      </c>
+      <c r="G34">
+        <v>155</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35">
+        <v>97.332633596912117</v>
+      </c>
+      <c r="F35">
+        <v>138</v>
+      </c>
+      <c r="G35">
+        <v>155</v>
+      </c>
+      <c r="H35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36">
+        <v>99.274246018246927</v>
+      </c>
+      <c r="F36">
+        <v>145</v>
+      </c>
+      <c r="G36">
+        <v>155</v>
+      </c>
+      <c r="H36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37">
+        <v>97.519741942938793</v>
+      </c>
+      <c r="F37">
+        <v>145</v>
+      </c>
+      <c r="G37">
+        <v>155</v>
+      </c>
+      <c r="H37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>99.623891441000467</v>
+      </c>
+      <c r="F38">
+        <v>155</v>
+      </c>
+      <c r="G38">
+        <v>155</v>
+      </c>
+      <c r="H38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39">
+        <v>94.684561528353683</v>
+      </c>
+      <c r="F39">
+        <v>155</v>
+      </c>
+      <c r="G39">
+        <v>155</v>
+      </c>
+      <c r="H39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40">
+        <v>94.684561528353683</v>
+      </c>
+      <c r="F40">
+        <v>155</v>
+      </c>
+      <c r="G40">
+        <v>155</v>
+      </c>
+      <c r="H40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41">
+        <v>94.684561528353683</v>
+      </c>
+      <c r="F41">
+        <v>155</v>
+      </c>
+      <c r="G41">
+        <v>155</v>
+      </c>
+      <c r="H41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42">
+        <v>94.684561528353683</v>
+      </c>
+      <c r="F42">
+        <v>155</v>
+      </c>
+      <c r="G42">
+        <v>155</v>
+      </c>
+      <c r="H42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>94.684561528353669</v>
+      </c>
+      <c r="F43">
+        <v>155</v>
+      </c>
+      <c r="G43">
+        <v>155</v>
+      </c>
+      <c r="H43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44">
+        <v>94.684561528353669</v>
+      </c>
+      <c r="F44">
+        <v>155</v>
+      </c>
+      <c r="G44">
+        <v>155</v>
+      </c>
+      <c r="H44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45">
+        <v>94.684561528353669</v>
+      </c>
+      <c r="F45">
+        <v>155</v>
+      </c>
+      <c r="G45">
+        <v>155</v>
+      </c>
+      <c r="H45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46">
+        <v>94.684561528353669</v>
+      </c>
+      <c r="F46">
+        <v>155</v>
+      </c>
+      <c r="G46">
+        <v>155</v>
+      </c>
+      <c r="H46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47">
+        <v>94.684561528353669</v>
+      </c>
+      <c r="F47">
+        <v>155</v>
+      </c>
+      <c r="G47">
+        <v>155</v>
+      </c>
+      <c r="H47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48">
+        <v>94.949763952774234</v>
+      </c>
+      <c r="F48">
+        <v>108</v>
+      </c>
+      <c r="G48">
+        <v>145</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49">
+        <v>94.142418995578197</v>
+      </c>
+      <c r="F49">
+        <v>108</v>
+      </c>
+      <c r="G49">
+        <v>145</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50">
+        <v>99.004809436913078</v>
+      </c>
+      <c r="F50">
+        <v>143</v>
+      </c>
+      <c r="G50">
+        <v>145</v>
+      </c>
+      <c r="H50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51">
+        <v>99.004809436913078</v>
+      </c>
+      <c r="F51">
+        <v>143</v>
+      </c>
+      <c r="G51">
+        <v>145</v>
+      </c>
+      <c r="H51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52">
+        <v>99.004809436913078</v>
+      </c>
+      <c r="F52">
+        <v>143</v>
+      </c>
+      <c r="G52">
+        <v>145</v>
+      </c>
+      <c r="H52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53">
+        <v>76.669007840739297</v>
+      </c>
+      <c r="F53">
+        <v>70</v>
+      </c>
+      <c r="G53">
+        <v>145</v>
+      </c>
+      <c r="H53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54">
+        <v>63.904215158400532</v>
+      </c>
+      <c r="F54">
+        <v>70</v>
+      </c>
+      <c r="G54">
+        <v>145</v>
+      </c>
+      <c r="H54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55">
+        <v>90.74994624138435</v>
+      </c>
+      <c r="F55">
+        <v>117</v>
+      </c>
+      <c r="G55">
+        <v>145</v>
+      </c>
+      <c r="H55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56">
+        <v>98.385667763467225</v>
+      </c>
+      <c r="F56">
+        <v>133</v>
+      </c>
+      <c r="G56">
+        <v>145</v>
+      </c>
+      <c r="H56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57">
+        <v>99.004809436913078</v>
+      </c>
+      <c r="F57">
+        <v>143</v>
+      </c>
+      <c r="G57">
+        <v>145</v>
+      </c>
+      <c r="H57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58">
+        <v>93.87101330405126</v>
+      </c>
+      <c r="F58">
+        <v>115</v>
+      </c>
+      <c r="G58">
+        <v>145</v>
+      </c>
+      <c r="H58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59">
+        <v>88.979454597060311</v>
+      </c>
+      <c r="F59">
+        <v>115</v>
+      </c>
+      <c r="G59">
+        <v>145</v>
+      </c>
+      <c r="H59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60">
+        <v>88.979454597060311</v>
+      </c>
+      <c r="F60">
+        <v>115</v>
+      </c>
+      <c r="G60">
+        <v>145</v>
+      </c>
+      <c r="H60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61">
+        <v>98.385667763467239</v>
+      </c>
+      <c r="F61">
+        <v>133</v>
+      </c>
+      <c r="G61">
+        <v>145</v>
+      </c>
+      <c r="H61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62">
+        <v>99.004809436913092</v>
+      </c>
+      <c r="F62">
+        <v>143</v>
+      </c>
+      <c r="G62">
+        <v>145</v>
+      </c>
+      <c r="H62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63">
+        <v>81.416468868660218</v>
+      </c>
+      <c r="F63">
+        <v>147</v>
+      </c>
+      <c r="G63">
+        <v>182</v>
+      </c>
+      <c r="H63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64">
+        <v>69.515676941113824</v>
+      </c>
+      <c r="F64">
+        <v>147</v>
+      </c>
+      <c r="G64">
+        <v>182</v>
+      </c>
+      <c r="H64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65">
+        <v>99.102780273106376</v>
+      </c>
+      <c r="F65">
+        <v>160</v>
+      </c>
+      <c r="G65">
+        <v>182</v>
+      </c>
+      <c r="H65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66">
+        <v>99.102780273106376</v>
+      </c>
+      <c r="F66">
+        <v>160</v>
+      </c>
+      <c r="G66">
+        <v>182</v>
+      </c>
+      <c r="H66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67">
+        <v>99.801622073254194</v>
+      </c>
+      <c r="F67">
+        <v>182</v>
+      </c>
+      <c r="G67">
+        <v>182</v>
+      </c>
+      <c r="H67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68">
+        <v>79.569725556396165</v>
+      </c>
+      <c r="F68">
+        <v>134</v>
+      </c>
+      <c r="G68">
+        <v>182</v>
+      </c>
+      <c r="H68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69">
+        <v>79.00253290732914</v>
+      </c>
+      <c r="F69">
+        <v>134</v>
+      </c>
+      <c r="G69">
+        <v>182</v>
+      </c>
+      <c r="H69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70">
+        <v>99.818398738172931</v>
+      </c>
+      <c r="F70">
+        <v>163</v>
+      </c>
+      <c r="G70">
+        <v>182</v>
+      </c>
+      <c r="H70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71">
+        <v>99.818398738172931</v>
+      </c>
+      <c r="F71">
+        <v>163</v>
+      </c>
+      <c r="G71">
+        <v>182</v>
+      </c>
+      <c r="H71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72">
+        <v>99.818398738172931</v>
+      </c>
+      <c r="F72">
+        <v>163</v>
+      </c>
+      <c r="G72">
+        <v>182</v>
+      </c>
+      <c r="H72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73">
+        <v>77.219476762658829</v>
+      </c>
+      <c r="F73">
+        <v>158</v>
+      </c>
+      <c r="G73">
+        <v>182</v>
+      </c>
+      <c r="H73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74">
+        <v>76.993656721359557</v>
+      </c>
+      <c r="F74">
+        <v>158</v>
+      </c>
+      <c r="G74">
+        <v>182</v>
+      </c>
+      <c r="H74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75">
+        <v>99.818398738172931</v>
+      </c>
+      <c r="F75">
+        <v>163</v>
+      </c>
+      <c r="G75">
+        <v>182</v>
+      </c>
+      <c r="H75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76">
+        <v>99.818398738172931</v>
+      </c>
+      <c r="F76">
+        <v>163</v>
+      </c>
+      <c r="G76">
+        <v>182</v>
+      </c>
+      <c r="H76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B77">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77">
+        <v>99.818398738172931</v>
+      </c>
+      <c r="F77">
+        <v>163</v>
+      </c>
+      <c r="G77">
+        <v>182</v>
+      </c>
+      <c r="H77">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:H77">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="M1, M2"/>
+        <filter val="M1, M2, M3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Solution_Petit_Cases.xlsx
+++ b/Solution_Petit_Cases.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yann\Documents\GitHub\OS11_Projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAVID MORA MEZA\Documents\GitHub\OS11_Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397429A3-918D-4554-9D82-D81BAE8CBD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,19 +28,6 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -235,7 +223,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -286,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -298,7 +286,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -317,7 +304,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="DAVID MORA MEZA" refreshedDate="44915.990140277776" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="75">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="DAVID MORA MEZA" refreshedDate="44915.990140277776" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="75" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="B1:J76" sheet="Sheet1"/>
   </cacheSource>
@@ -1205,7 +1192,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0" defaultSubtotal="0">
@@ -1611,27 +1598,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:J76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1660,7 +1647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1692,7 +1679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1724,7 +1711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1756,7 +1743,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1788,7 +1775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1820,7 +1807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1852,7 +1839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1884,7 +1871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1916,7 +1903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1948,7 +1935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1980,7 +1967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2012,7 +1999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2044,7 +2031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2076,7 +2063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2108,7 +2095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2140,7 +2127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2172,7 +2159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2204,7 +2191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2236,7 +2223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2268,7 +2255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2300,7 +2287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2332,7 +2319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2364,7 +2351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2396,7 +2383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2428,7 +2415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2460,7 +2447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2492,7 +2479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2524,7 +2511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2556,7 +2543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2588,7 +2575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2620,7 +2607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2652,7 +2639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2684,7 +2671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2716,7 +2703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2748,7 +2735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2780,7 +2767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2812,7 +2799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2844,7 +2831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2876,7 +2863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2908,7 +2895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2940,7 +2927,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2972,7 +2959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3004,7 +2991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3036,7 +3023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3068,7 +3055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3100,7 +3087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3132,7 +3119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3164,7 +3151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3196,7 +3183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3228,7 +3215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3260,7 +3247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3292,7 +3279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3324,7 +3311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3356,7 +3343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3388,7 +3375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3420,7 +3407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3452,7 +3439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3484,7 +3471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3516,7 +3503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3548,7 +3535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3580,7 +3567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3612,7 +3599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3644,7 +3631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3676,7 +3663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3708,7 +3695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3740,7 +3727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3772,7 +3759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3804,7 +3791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3836,7 +3823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3868,7 +3855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3900,7 +3887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3932,7 +3919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3964,7 +3951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3996,7 +3983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4028,7 +4015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4066,21 +4053,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:C21"/>
   <sheetViews>
     <sheetView zoomScale="109" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>59</v>
       </c>
@@ -4091,189 +4078,183 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>0.22168199557796359</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5">
         <v>0.11063477325723423</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>0.22168199557796359</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6">
         <v>0.11063477325723423</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>5.9761017845357992E-2</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7">
         <v>5.4634346256432556E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>5.0728759780841862E-2</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8">
         <v>4.7599114165851546E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>1.5661846496106784E-2</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9">
         <v>2.7955828684300115E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11">
         <v>0.18286219527598838</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11">
         <v>0.21661043762503768</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12">
         <v>0.18286219527598838</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12">
         <v>0.21661043762503768</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13">
         <v>6.5214096248579018E-2</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13">
         <v>8.3275624789264854E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14">
         <v>4.3145130731337626E-2</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14">
         <v>4.8104694461842623E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15">
         <v>2.9352027283061764E-2</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15">
         <v>4.3581277294104777E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17">
         <v>8.4358311541650563E-2</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17">
         <v>8.4254800704480923E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18">
         <v>8.4358311541650563E-2</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18">
         <v>8.4254800704480923E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19">
         <v>6.7972716938234173E-2</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19">
         <v>8.8627733559039121E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20">
         <v>4.3145130731337626E-2</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20">
         <v>4.8104694461842623E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21">
         <v>2.9352027283061764E-2</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21">
         <v>4.3581277294104777E-2</v>
       </c>
     </row>
@@ -4283,7 +4264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="B2:E77"/>
   <sheetViews>
@@ -4291,9 +4272,9 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4307,7 +4288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
@@ -4321,7 +4302,7 @@
         <v>98.809009991703832</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -4335,7 +4316,7 @@
         <v>83.53257191799014</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
@@ -4349,7 +4330,7 @@
         <v>93.260764844377462</v>
       </c>
     </row>
-    <row r="6" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1</v>
       </c>
@@ -4363,7 +4344,7 @@
         <v>93.260764844377462</v>
       </c>
     </row>
-    <row r="7" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
@@ -4377,7 +4358,7 @@
         <v>93.344509627185303</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1</v>
       </c>
@@ -4391,7 +4372,7 @@
         <v>99.838682654697706</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1</v>
       </c>
@@ -4405,7 +4386,7 @@
         <v>93.344509627185303</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1</v>
       </c>
@@ -4419,7 +4400,7 @@
         <v>93.344509627185303</v>
       </c>
     </row>
-    <row r="11" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1</v>
       </c>
@@ -4433,7 +4414,7 @@
         <v>93.344509627185303</v>
       </c>
     </row>
-    <row r="12" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>1</v>
       </c>
@@ -4447,7 +4428,7 @@
         <v>93.344509627185303</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>1</v>
       </c>
@@ -4461,7 +4442,7 @@
         <v>87.930190806471003</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>1</v>
       </c>
@@ -4475,7 +4456,7 @@
         <v>86.161125174864566</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1</v>
       </c>
@@ -4489,7 +4470,7 @@
         <v>99.229966696192591</v>
       </c>
     </row>
-    <row r="16" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>1</v>
       </c>
@@ -4503,7 +4484,7 @@
         <v>99.229966696192591</v>
       </c>
     </row>
-    <row r="17" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>1</v>
       </c>
@@ -4517,7 +4498,7 @@
         <v>93.344509627185303</v>
       </c>
     </row>
-    <row r="18" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>2</v>
       </c>
@@ -4531,7 +4512,7 @@
         <v>97.400431032480725</v>
       </c>
     </row>
-    <row r="19" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>2</v>
       </c>
@@ -4545,7 +4526,7 @@
         <v>97.400431032480725</v>
       </c>
     </row>
-    <row r="20" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>2</v>
       </c>
@@ -4559,7 +4540,7 @@
         <v>98.216943136678665</v>
       </c>
     </row>
-    <row r="21" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>2</v>
       </c>
@@ -4573,7 +4554,7 @@
         <v>98.216943136678665</v>
       </c>
     </row>
-    <row r="22" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>2</v>
       </c>
@@ -4587,7 +4568,7 @@
         <v>97.402836100248862</v>
       </c>
     </row>
-    <row r="23" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>2</v>
       </c>
@@ -4601,7 +4582,7 @@
         <v>88.961832298285742</v>
       </c>
     </row>
-    <row r="24" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>2</v>
       </c>
@@ -4615,7 +4596,7 @@
         <v>85.75279451074033</v>
       </c>
     </row>
-    <row r="25" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>2</v>
       </c>
@@ -4629,7 +4610,7 @@
         <v>99.234957168473954</v>
       </c>
     </row>
-    <row r="26" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>2</v>
       </c>
@@ -4643,7 +4624,7 @@
         <v>99.234957168473954</v>
       </c>
     </row>
-    <row r="27" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>2</v>
       </c>
@@ -4657,7 +4638,7 @@
         <v>99.234957168473954</v>
       </c>
     </row>
-    <row r="28" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>2</v>
       </c>
@@ -4671,7 +4652,7 @@
         <v>99.234957168473954</v>
       </c>
     </row>
-    <row r="29" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>2</v>
       </c>
@@ -4685,7 +4666,7 @@
         <v>99.234957168473954</v>
       </c>
     </row>
-    <row r="30" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>2</v>
       </c>
@@ -4699,7 +4680,7 @@
         <v>99.234957168473954</v>
       </c>
     </row>
-    <row r="31" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>2</v>
       </c>
@@ -4713,7 +4694,7 @@
         <v>99.234957168473954</v>
       </c>
     </row>
-    <row r="32" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>2</v>
       </c>
@@ -4727,7 +4708,7 @@
         <v>99.234957168473954</v>
       </c>
     </row>
-    <row r="33" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>3</v>
       </c>
@@ -4741,7 +4722,7 @@
         <v>98.241097578494831</v>
       </c>
     </row>
-    <row r="34" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>3</v>
       </c>
@@ -4755,7 +4736,7 @@
         <v>89.029263630232165</v>
       </c>
     </row>
-    <row r="35" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>3</v>
       </c>
@@ -4769,7 +4750,7 @@
         <v>97.332633596912117</v>
       </c>
     </row>
-    <row r="36" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>3</v>
       </c>
@@ -4783,7 +4764,7 @@
         <v>99.274246018246927</v>
       </c>
     </row>
-    <row r="37" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>3</v>
       </c>
@@ -4797,7 +4778,7 @@
         <v>97.519741942938793</v>
       </c>
     </row>
-    <row r="38" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>3</v>
       </c>
@@ -4811,7 +4792,7 @@
         <v>99.623891441000467</v>
       </c>
     </row>
-    <row r="39" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>3</v>
       </c>
@@ -4825,7 +4806,7 @@
         <v>94.684561528353683</v>
       </c>
     </row>
-    <row r="40" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>3</v>
       </c>
@@ -4839,7 +4820,7 @@
         <v>94.684561528353683</v>
       </c>
     </row>
-    <row r="41" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>3</v>
       </c>
@@ -4853,7 +4834,7 @@
         <v>94.684561528353683</v>
       </c>
     </row>
-    <row r="42" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>3</v>
       </c>
@@ -4867,7 +4848,7 @@
         <v>94.684561528353683</v>
       </c>
     </row>
-    <row r="43" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>3</v>
       </c>
@@ -4881,7 +4862,7 @@
         <v>94.684561528353669</v>
       </c>
     </row>
-    <row r="44" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>3</v>
       </c>
@@ -4895,7 +4876,7 @@
         <v>94.684561528353669</v>
       </c>
     </row>
-    <row r="45" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>3</v>
       </c>
@@ -4909,7 +4890,7 @@
         <v>94.684561528353669</v>
       </c>
     </row>
-    <row r="46" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>3</v>
       </c>
@@ -4923,7 +4904,7 @@
         <v>94.684561528353669</v>
       </c>
     </row>
-    <row r="47" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>3</v>
       </c>
@@ -4937,7 +4918,7 @@
         <v>94.684561528353669</v>
       </c>
     </row>
-    <row r="48" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>4</v>
       </c>
@@ -4951,7 +4932,7 @@
         <v>94.949763952774234</v>
       </c>
     </row>
-    <row r="49" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>4</v>
       </c>
@@ -4965,7 +4946,7 @@
         <v>94.142418995578197</v>
       </c>
     </row>
-    <row r="50" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>4</v>
       </c>
@@ -4979,7 +4960,7 @@
         <v>99.004809436913078</v>
       </c>
     </row>
-    <row r="51" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>4</v>
       </c>
@@ -4993,7 +4974,7 @@
         <v>99.004809436913078</v>
       </c>
     </row>
-    <row r="52" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>4</v>
       </c>
@@ -5007,7 +4988,7 @@
         <v>99.004809436913078</v>
       </c>
     </row>
-    <row r="53" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>4</v>
       </c>
@@ -5021,7 +5002,7 @@
         <v>76.669007840739297</v>
       </c>
     </row>
-    <row r="54" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>4</v>
       </c>
@@ -5035,7 +5016,7 @@
         <v>63.904215158400532</v>
       </c>
     </row>
-    <row r="55" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>4</v>
       </c>
@@ -5049,7 +5030,7 @@
         <v>90.74994624138435</v>
       </c>
     </row>
-    <row r="56" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>4</v>
       </c>
@@ -5063,7 +5044,7 @@
         <v>98.385667763467225</v>
       </c>
     </row>
-    <row r="57" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>4</v>
       </c>
@@ -5077,7 +5058,7 @@
         <v>99.004809436913078</v>
       </c>
     </row>
-    <row r="58" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>4</v>
       </c>
@@ -5091,7 +5072,7 @@
         <v>93.87101330405126</v>
       </c>
     </row>
-    <row r="59" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>4</v>
       </c>
@@ -5105,7 +5086,7 @@
         <v>88.979454597060311</v>
       </c>
     </row>
-    <row r="60" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>4</v>
       </c>
@@ -5119,7 +5100,7 @@
         <v>88.979454597060311</v>
       </c>
     </row>
-    <row r="61" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>4</v>
       </c>
@@ -5133,7 +5114,7 @@
         <v>98.385667763467239</v>
       </c>
     </row>
-    <row r="62" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>4</v>
       </c>
@@ -5147,7 +5128,7 @@
         <v>99.004809436913092</v>
       </c>
     </row>
-    <row r="63" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>5</v>
       </c>
@@ -5161,7 +5142,7 @@
         <v>81.416468868660218</v>
       </c>
     </row>
-    <row r="64" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>5</v>
       </c>
@@ -5175,7 +5156,7 @@
         <v>69.515676941113824</v>
       </c>
     </row>
-    <row r="65" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>5</v>
       </c>
@@ -5189,7 +5170,7 @@
         <v>99.102780273106376</v>
       </c>
     </row>
-    <row r="66" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>5</v>
       </c>
@@ -5203,7 +5184,7 @@
         <v>99.102780273106376</v>
       </c>
     </row>
-    <row r="67" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>5</v>
       </c>
@@ -5217,7 +5198,7 @@
         <v>99.801622073254194</v>
       </c>
     </row>
-    <row r="68" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>5</v>
       </c>
@@ -5231,7 +5212,7 @@
         <v>79.569725556396165</v>
       </c>
     </row>
-    <row r="69" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>5</v>
       </c>
@@ -5245,7 +5226,7 @@
         <v>79.00253290732914</v>
       </c>
     </row>
-    <row r="70" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>5</v>
       </c>
@@ -5259,7 +5240,7 @@
         <v>99.818398738172931</v>
       </c>
     </row>
-    <row r="71" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>5</v>
       </c>
@@ -5273,7 +5254,7 @@
         <v>99.818398738172931</v>
       </c>
     </row>
-    <row r="72" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>5</v>
       </c>
@@ -5287,7 +5268,7 @@
         <v>99.818398738172931</v>
       </c>
     </row>
-    <row r="73" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>5</v>
       </c>
@@ -5301,7 +5282,7 @@
         <v>77.219476762658829</v>
       </c>
     </row>
-    <row r="74" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>5</v>
       </c>
@@ -5315,7 +5296,7 @@
         <v>76.993656721359557</v>
       </c>
     </row>
-    <row r="75" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>5</v>
       </c>
@@ -5329,7 +5310,7 @@
         <v>99.818398738172931</v>
       </c>
     </row>
-    <row r="76" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>5</v>
       </c>
@@ -5343,7 +5324,7 @@
         <v>99.818398738172931</v>
       </c>
     </row>
-    <row r="77" spans="2:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>5</v>
       </c>
@@ -5358,7 +5339,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:E77">
+  <autoFilter ref="B2:E77" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="1"/>
@@ -5377,17 +5358,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="B4:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H17"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -5410,7 +5391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
@@ -5433,7 +5414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1</v>
       </c>
@@ -5456,7 +5437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
@@ -5479,7 +5460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1</v>
       </c>
@@ -5502,7 +5483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1</v>
       </c>
@@ -5525,7 +5506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1</v>
       </c>
@@ -5548,7 +5529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1</v>
       </c>
@@ -5571,7 +5552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>1</v>
       </c>
@@ -5594,7 +5575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>1</v>
       </c>
@@ -5617,7 +5598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>1</v>
       </c>
@@ -5640,7 +5621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1</v>
       </c>
@@ -5663,7 +5644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>1</v>
       </c>
@@ -5686,7 +5667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>1</v>
       </c>
@@ -5709,7 +5690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>1</v>
       </c>
@@ -5732,7 +5713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>1</v>
       </c>
@@ -5755,7 +5736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>2</v>
       </c>
@@ -5778,7 +5759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>2</v>
       </c>
@@ -5801,7 +5782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>2</v>
       </c>
@@ -5824,7 +5805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>2</v>
       </c>
@@ -5847,7 +5828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>2</v>
       </c>
@@ -5870,7 +5851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>2</v>
       </c>
@@ -5893,7 +5874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>2</v>
       </c>
@@ -5916,7 +5897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>2</v>
       </c>
@@ -5939,7 +5920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>2</v>
       </c>
@@ -5962,7 +5943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>2</v>
       </c>
@@ -5985,7 +5966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>2</v>
       </c>
@@ -6008,7 +5989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>2</v>
       </c>
@@ -6031,7 +6012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>2</v>
       </c>
@@ -6054,7 +6035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>2</v>
       </c>
@@ -6077,7 +6058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>2</v>
       </c>
@@ -6100,7 +6081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>3</v>
       </c>
@@ -6123,7 +6104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>3</v>
       </c>
@@ -6146,7 +6127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>3</v>
       </c>
@@ -6169,7 +6150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>3</v>
       </c>
@@ -6192,7 +6173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>3</v>
       </c>
@@ -6215,7 +6196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>3</v>
       </c>
@@ -6238,7 +6219,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>3</v>
       </c>
@@ -6261,7 +6242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>3</v>
       </c>
@@ -6284,7 +6265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>3</v>
       </c>
@@ -6307,7 +6288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>3</v>
       </c>
@@ -6330,7 +6311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>3</v>
       </c>
@@ -6353,7 +6334,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>3</v>
       </c>
@@ -6376,7 +6357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>3</v>
       </c>
@@ -6399,7 +6380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>3</v>
       </c>
@@ -6422,7 +6403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>3</v>
       </c>
@@ -6445,7 +6426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>4</v>
       </c>
@@ -6468,7 +6449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>4</v>
       </c>
@@ -6491,7 +6472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>4</v>
       </c>
@@ -6514,7 +6495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>4</v>
       </c>
@@ -6537,7 +6518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>4</v>
       </c>
@@ -6560,7 +6541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>4</v>
       </c>
@@ -6583,7 +6564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>4</v>
       </c>
@@ -6606,7 +6587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>4</v>
       </c>
@@ -6629,7 +6610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>4</v>
       </c>
@@ -6652,7 +6633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>4</v>
       </c>
@@ -6675,7 +6656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>4</v>
       </c>
@@ -6698,7 +6679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>4</v>
       </c>
@@ -6721,7 +6702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>4</v>
       </c>
@@ -6744,7 +6725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>4</v>
       </c>
@@ -6767,7 +6748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>4</v>
       </c>
@@ -6790,7 +6771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>5</v>
       </c>
@@ -6813,7 +6794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>5</v>
       </c>
@@ -6836,7 +6817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>5</v>
       </c>
@@ -6859,7 +6840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>5</v>
       </c>
@@ -6882,7 +6863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>5</v>
       </c>
@@ -6905,7 +6886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>5</v>
       </c>
@@ -6928,7 +6909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>5</v>
       </c>
@@ -6951,7 +6932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>5</v>
       </c>
@@ -6974,7 +6955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>5</v>
       </c>
@@ -6997,7 +6978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>5</v>
       </c>
@@ -7020,7 +7001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>5</v>
       </c>
@@ -7043,7 +7024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>5</v>
       </c>
@@ -7066,7 +7047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>5</v>
       </c>
@@ -7089,7 +7070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>5</v>
       </c>
@@ -7112,7 +7093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>5</v>
       </c>
@@ -7136,7 +7117,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B4:H79">
+  <autoFilter ref="B4:H79" xr:uid="{00000000-0009-0000-0000-000003000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="1"/>
@@ -7154,7 +7135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="B2:H77"/>
   <sheetViews>
@@ -7162,9 +7143,9 @@
       <selection activeCell="B2" sqref="B2:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7187,7 +7168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
@@ -7210,7 +7191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -7233,7 +7214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
@@ -7256,7 +7237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1</v>
       </c>
@@ -7279,7 +7260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
@@ -7302,7 +7283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1</v>
       </c>
@@ -7325,7 +7306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1</v>
       </c>
@@ -7348,7 +7329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1</v>
       </c>
@@ -7371,7 +7352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1</v>
       </c>
@@ -7394,7 +7375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>1</v>
       </c>
@@ -7417,7 +7398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>1</v>
       </c>
@@ -7440,7 +7421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>1</v>
       </c>
@@ -7463,7 +7444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1</v>
       </c>
@@ -7486,7 +7467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>1</v>
       </c>
@@ -7509,7 +7490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>1</v>
       </c>
@@ -7532,7 +7513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>2</v>
       </c>
@@ -7555,7 +7536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>2</v>
       </c>
@@ -7578,7 +7559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>2</v>
       </c>
@@ -7601,7 +7582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>2</v>
       </c>
@@ -7624,7 +7605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>2</v>
       </c>
@@ -7647,7 +7628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>2</v>
       </c>
@@ -7670,7 +7651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>2</v>
       </c>
@@ -7693,7 +7674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>2</v>
       </c>
@@ -7716,7 +7697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>2</v>
       </c>
@@ -7739,7 +7720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>2</v>
       </c>
@@ -7762,7 +7743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>2</v>
       </c>
@@ -7785,7 +7766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>2</v>
       </c>
@@ -7808,7 +7789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>2</v>
       </c>
@@ -7831,7 +7812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>2</v>
       </c>
@@ -7854,7 +7835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>2</v>
       </c>
@@ -7877,7 +7858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>3</v>
       </c>
@@ -7900,7 +7881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>3</v>
       </c>
@@ -7923,7 +7904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>3</v>
       </c>
@@ -7946,7 +7927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>3</v>
       </c>
@@ -7969,7 +7950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>3</v>
       </c>
@@ -7992,7 +7973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>3</v>
       </c>
@@ -8015,7 +7996,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>3</v>
       </c>
@@ -8038,7 +8019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>3</v>
       </c>
@@ -8061,7 +8042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>3</v>
       </c>
@@ -8084,7 +8065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>3</v>
       </c>
@@ -8107,7 +8088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>3</v>
       </c>
@@ -8130,7 +8111,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>3</v>
       </c>
@@ -8153,7 +8134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>3</v>
       </c>
@@ -8176,7 +8157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>3</v>
       </c>
@@ -8199,7 +8180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>3</v>
       </c>
@@ -8222,7 +8203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>4</v>
       </c>
@@ -8245,7 +8226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>4</v>
       </c>
@@ -8268,7 +8249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>4</v>
       </c>
@@ -8291,7 +8272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>4</v>
       </c>
@@ -8314,7 +8295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>4</v>
       </c>
@@ -8337,7 +8318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>4</v>
       </c>
@@ -8360,7 +8341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>4</v>
       </c>
@@ -8383,7 +8364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>4</v>
       </c>
@@ -8406,7 +8387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>4</v>
       </c>
@@ -8429,7 +8410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>4</v>
       </c>
@@ -8452,7 +8433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>4</v>
       </c>
@@ -8475,7 +8456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>4</v>
       </c>
@@ -8498,7 +8479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>4</v>
       </c>
@@ -8521,7 +8502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>4</v>
       </c>
@@ -8544,7 +8525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>4</v>
       </c>
@@ -8567,7 +8548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>5</v>
       </c>
@@ -8590,7 +8571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>5</v>
       </c>
@@ -8613,7 +8594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>5</v>
       </c>
@@ -8636,7 +8617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>5</v>
       </c>
@@ -8659,7 +8640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>5</v>
       </c>
@@ -8682,7 +8663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>5</v>
       </c>
@@ -8705,7 +8686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>5</v>
       </c>
@@ -8728,7 +8709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>5</v>
       </c>
@@ -8751,7 +8732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>5</v>
       </c>
@@ -8774,7 +8755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>5</v>
       </c>
@@ -8797,7 +8778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>5</v>
       </c>
@@ -8820,7 +8801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>5</v>
       </c>
@@ -8843,7 +8824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>5</v>
       </c>
@@ -8866,7 +8847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>5</v>
       </c>
@@ -8889,7 +8870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>5</v>
       </c>
@@ -8913,7 +8894,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:H77">
+  <autoFilter ref="B2:H77" xr:uid="{00000000-0009-0000-0000-000004000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="1"/>
